--- a/biology/Médecine/Abdelaali_El_Badaoui/Abdelaali_El_Badaoui.xlsx
+++ b/biology/Médecine/Abdelaali_El_Badaoui/Abdelaali_El_Badaoui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abdelaali El Badaoui, né en 1983[1], est un infirmier et militant associatif français. Il est président et fondateur de l’association Banlieues Santé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdelaali El Badaoui, né en 1983, est un infirmier et militant associatif français. Il est président et fondateur de l’association Banlieues Santé.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abdelaali El Badaoui nait dans le nord de la France ; sa famille — deux parents bergers originaires du Maroc, analphabètes, et six frères et sœurs — déménage en Seine-et-Marne lorsqu'il a sept ans[2].
-Pendant son enfance, il est victime d'un accident domestique qui le brûle à plus de 70%[3]. En 2002, il est vice-champion d’Europe junior de cross par équipe[4]. Il est contraint d'arrêter sa pratique sportive en raison d’une blessure à la malléole. Sans diplôme, il intègre un IFSI grâce à une validation des acquis[5]. 
-Il crée officiellement Banlieues santé en 2018 même si l'association existe de façon informelle depuis 2006[2],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdelaali El Badaoui nait dans le nord de la France ; sa famille — deux parents bergers originaires du Maroc, analphabètes, et six frères et sœurs — déménage en Seine-et-Marne lorsqu'il a sept ans.
+Pendant son enfance, il est victime d'un accident domestique qui le brûle à plus de 70%. En 2002, il est vice-champion d’Europe junior de cross par équipe. Il est contraint d'arrêter sa pratique sportive en raison d’une blessure à la malléole. Sans diplôme, il intègre un IFSI grâce à une validation des acquis. 
+Il crée officiellement Banlieues santé en 2018 même si l'association existe de façon informelle depuis 2006,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2020, il reçoit le prix du citoyen européen, décerné par le Parlement européen, en reconnaissance de l’apport de Banlieues Santé à la société française[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, il reçoit le prix du citoyen européen, décerné par le Parlement européen, en reconnaissance de l’apport de Banlieues Santé à la société française.
 </t>
         </is>
       </c>
